--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.457077805261824</v>
+        <v>0.5247423333333333</v>
       </c>
       <c r="H2">
-        <v>0.457077805261824</v>
+        <v>1.574227</v>
       </c>
       <c r="I2">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="J2">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.96984461224647</v>
+        <v>7.616180666666666</v>
       </c>
       <c r="N2">
-        <v>5.96984461224647</v>
+        <v>22.848542</v>
       </c>
       <c r="O2">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="P2">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="Q2">
-        <v>2.728683473119741</v>
+        <v>3.996532414114888</v>
       </c>
       <c r="R2">
-        <v>2.728683473119741</v>
+        <v>35.968791727034</v>
       </c>
       <c r="S2">
-        <v>0.003478186826187355</v>
+        <v>0.002813301934008449</v>
       </c>
       <c r="T2">
-        <v>0.003478186826187355</v>
+        <v>0.002813301934008449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.457077805261824</v>
+        <v>0.5247423333333333</v>
       </c>
       <c r="H3">
-        <v>0.457077805261824</v>
+        <v>1.574227</v>
       </c>
       <c r="I3">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="J3">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.5745337827842</v>
+        <v>86.98680366666667</v>
       </c>
       <c r="N3">
-        <v>86.5745337827842</v>
+        <v>260.960411</v>
       </c>
       <c r="O3">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="P3">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="Q3">
-        <v>39.57129789300064</v>
+        <v>45.64565832525523</v>
       </c>
       <c r="R3">
-        <v>39.57129789300064</v>
+        <v>410.810924927297</v>
       </c>
       <c r="S3">
-        <v>0.05044057633742646</v>
+        <v>0.03213160949026593</v>
       </c>
       <c r="T3">
-        <v>0.05044057633742646</v>
+        <v>0.03213160949026593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.457077805261824</v>
+        <v>0.5247423333333333</v>
       </c>
       <c r="H4">
-        <v>0.457077805261824</v>
+        <v>1.574227</v>
       </c>
       <c r="I4">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="J4">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.809150119642212</v>
+        <v>0.9360126666666666</v>
       </c>
       <c r="N4">
-        <v>0.809150119642212</v>
+        <v>2.808038</v>
       </c>
       <c r="O4">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="P4">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="Q4">
-        <v>0.3698445608134046</v>
+        <v>0.4911654707362222</v>
       </c>
       <c r="R4">
-        <v>0.3698445608134046</v>
+        <v>4.420489236626</v>
       </c>
       <c r="S4">
-        <v>0.0004714319164646407</v>
+        <v>0.0003457489207044027</v>
       </c>
       <c r="T4">
-        <v>0.0004714319164646407</v>
+        <v>0.0003457489207044027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.457077805261824</v>
+        <v>0.5247423333333333</v>
       </c>
       <c r="H5">
-        <v>0.457077805261824</v>
+        <v>1.574227</v>
       </c>
       <c r="I5">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="J5">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.090419340765</v>
+        <v>25.99049233333334</v>
       </c>
       <c r="N5">
-        <v>24.090419340765</v>
+        <v>77.97147700000001</v>
       </c>
       <c r="O5">
-        <v>0.2051226970879587</v>
+        <v>0.2138616106749707</v>
       </c>
       <c r="P5">
-        <v>0.2051226970879587</v>
+        <v>0.2138616106749707</v>
       </c>
       <c r="Q5">
-        <v>11.01119600011386</v>
+        <v>13.63831159147544</v>
       </c>
       <c r="R5">
-        <v>11.01119600011386</v>
+        <v>122.744804323279</v>
       </c>
       <c r="S5">
-        <v>0.01403570522028162</v>
+        <v>0.009600494729230219</v>
       </c>
       <c r="T5">
-        <v>0.01403570522028162</v>
+        <v>0.009600494729230219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.34557888966876</v>
+        <v>4.531154666666667</v>
       </c>
       <c r="H6">
-        <v>4.34557888966876</v>
+        <v>13.593464</v>
       </c>
       <c r="I6">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="J6">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.96984461224647</v>
+        <v>7.616180666666666</v>
       </c>
       <c r="N6">
-        <v>5.96984461224647</v>
+        <v>22.848542</v>
       </c>
       <c r="O6">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="P6">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="Q6">
-        <v>25.94243072158104</v>
+        <v>34.5100925699431</v>
       </c>
       <c r="R6">
-        <v>25.94243072158104</v>
+        <v>310.590833129488</v>
       </c>
       <c r="S6">
-        <v>0.03306818898709314</v>
+        <v>0.02429288696044105</v>
       </c>
       <c r="T6">
-        <v>0.03306818898709314</v>
+        <v>0.02429288696044104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.34557888966876</v>
+        <v>4.531154666666667</v>
       </c>
       <c r="H7">
-        <v>4.34557888966876</v>
+        <v>13.593464</v>
       </c>
       <c r="I7">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="J7">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.5745337827842</v>
+        <v>86.98680366666667</v>
       </c>
       <c r="N7">
-        <v>86.5745337827842</v>
+        <v>260.960411</v>
       </c>
       <c r="O7">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="P7">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="Q7">
-        <v>376.2164663893819</v>
+        <v>394.1506613726338</v>
       </c>
       <c r="R7">
-        <v>376.2164663893819</v>
+        <v>3547.355952353704</v>
       </c>
       <c r="S7">
-        <v>0.4795540303889558</v>
+        <v>0.2774567307433987</v>
       </c>
       <c r="T7">
-        <v>0.4795540303889558</v>
+        <v>0.2774567307433987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.34557888966876</v>
+        <v>4.531154666666667</v>
       </c>
       <c r="H8">
-        <v>4.34557888966876</v>
+        <v>13.593464</v>
       </c>
       <c r="I8">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="J8">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.809150119642212</v>
+        <v>0.9360126666666666</v>
       </c>
       <c r="N8">
-        <v>0.809150119642212</v>
+        <v>2.808038</v>
       </c>
       <c r="O8">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="P8">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="Q8">
-        <v>3.516225678490148</v>
+        <v>4.241218162625778</v>
       </c>
       <c r="R8">
-        <v>3.516225678490148</v>
+        <v>38.17096346363199</v>
       </c>
       <c r="S8">
-        <v>0.004482047827571329</v>
+        <v>0.002985544973268883</v>
       </c>
       <c r="T8">
-        <v>0.004482047827571329</v>
+        <v>0.002985544973268882</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.34557888966876</v>
+        <v>4.531154666666667</v>
       </c>
       <c r="H9">
-        <v>4.34557888966876</v>
+        <v>13.593464</v>
       </c>
       <c r="I9">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="J9">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.090419340765</v>
+        <v>25.99049233333334</v>
       </c>
       <c r="N9">
-        <v>24.090419340765</v>
+        <v>77.97147700000001</v>
       </c>
       <c r="O9">
-        <v>0.2051226970879587</v>
+        <v>0.2138616106749707</v>
       </c>
       <c r="P9">
-        <v>0.2051226970879587</v>
+        <v>0.2138616106749707</v>
       </c>
       <c r="Q9">
-        <v>104.6868177304964</v>
+        <v>117.7669406251476</v>
       </c>
       <c r="R9">
-        <v>104.6868177304964</v>
+        <v>1059.902465626328</v>
       </c>
       <c r="S9">
-        <v>0.1334417545650268</v>
+        <v>0.0829003564822486</v>
       </c>
       <c r="T9">
-        <v>0.1334417545650268</v>
+        <v>0.08290035648224858</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.87723795395895</v>
+        <v>0.08000233333333333</v>
       </c>
       <c r="H10">
-        <v>1.87723795395895</v>
+        <v>0.240007</v>
       </c>
       <c r="I10">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="J10">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.96984461224647</v>
+        <v>7.616180666666666</v>
       </c>
       <c r="N10">
-        <v>5.96984461224647</v>
+        <v>22.848542</v>
       </c>
       <c r="O10">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="P10">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="Q10">
-        <v>11.20681888534642</v>
+        <v>0.6093122244215554</v>
       </c>
       <c r="R10">
-        <v>11.20681888534642</v>
+        <v>5.483810019793999</v>
       </c>
       <c r="S10">
-        <v>0.01428506098067648</v>
+        <v>0.0004289166411677387</v>
       </c>
       <c r="T10">
-        <v>0.01428506098067648</v>
+        <v>0.0004289166411677387</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.87723795395895</v>
+        <v>0.08000233333333333</v>
       </c>
       <c r="H11">
-        <v>1.87723795395895</v>
+        <v>0.240007</v>
       </c>
       <c r="I11">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="J11">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.5745337827842</v>
+        <v>86.98680366666667</v>
       </c>
       <c r="N11">
-        <v>86.5745337827842</v>
+        <v>260.960411</v>
       </c>
       <c r="O11">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="P11">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="Q11">
-        <v>162.5210006633438</v>
+        <v>6.959147262541889</v>
       </c>
       <c r="R11">
-        <v>162.5210006633438</v>
+        <v>62.632325362877</v>
       </c>
       <c r="S11">
-        <v>0.2071615887495145</v>
+        <v>0.004898792358999214</v>
       </c>
       <c r="T11">
-        <v>0.2071615887495145</v>
+        <v>0.004898792358999214</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.87723795395895</v>
+        <v>0.08000233333333333</v>
       </c>
       <c r="H12">
-        <v>1.87723795395895</v>
+        <v>0.240007</v>
       </c>
       <c r="I12">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="J12">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.809150119642212</v>
+        <v>0.9360126666666666</v>
       </c>
       <c r="N12">
-        <v>0.809150119642212</v>
+        <v>2.808038</v>
       </c>
       <c r="O12">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="P12">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="Q12">
-        <v>1.518967315042786</v>
+        <v>0.07488319736288888</v>
       </c>
       <c r="R12">
-        <v>1.518967315042786</v>
+        <v>0.6739487762659999</v>
       </c>
       <c r="S12">
-        <v>0.001936190898151547</v>
+        <v>5.27129576684313E-05</v>
       </c>
       <c r="T12">
-        <v>0.001936190898151547</v>
+        <v>5.27129576684313E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.240007</v>
+      </c>
+      <c r="I13">
+        <v>0.006844115528380393</v>
+      </c>
+      <c r="J13">
+        <v>0.006844115528380393</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>25.99049233333334</v>
+      </c>
+      <c r="N13">
+        <v>77.97147700000001</v>
+      </c>
+      <c r="O13">
+        <v>0.2138616106749707</v>
+      </c>
+      <c r="P13">
+        <v>0.2138616106749707</v>
+      </c>
+      <c r="Q13">
+        <v>2.079300031148778</v>
+      </c>
+      <c r="R13">
+        <v>18.713700280339</v>
+      </c>
+      <c r="S13">
+        <v>0.001463693570545009</v>
+      </c>
+      <c r="T13">
+        <v>0.001463693570545009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.553315</v>
+      </c>
+      <c r="H14">
+        <v>19.659945</v>
+      </c>
+      <c r="I14">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="J14">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.616180666666666</v>
+      </c>
+      <c r="N14">
+        <v>22.848542</v>
+      </c>
+      <c r="O14">
+        <v>0.06266940401417194</v>
+      </c>
+      <c r="P14">
+        <v>0.06266940401417194</v>
+      </c>
+      <c r="Q14">
+        <v>49.91123100557667</v>
+      </c>
+      <c r="R14">
+        <v>449.20107905019</v>
+      </c>
+      <c r="S14">
+        <v>0.0351342984785547</v>
+      </c>
+      <c r="T14">
+        <v>0.0351342984785547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.553315</v>
+      </c>
+      <c r="H15">
+        <v>19.659945</v>
+      </c>
+      <c r="I15">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="J15">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>86.98680366666667</v>
+      </c>
+      <c r="N15">
+        <v>260.960411</v>
+      </c>
+      <c r="O15">
+        <v>0.7157670466966058</v>
+      </c>
+      <c r="P15">
+        <v>0.7157670466966058</v>
+      </c>
+      <c r="Q15">
+        <v>570.0519252708217</v>
+      </c>
+      <c r="R15">
+        <v>5130.467327437395</v>
+      </c>
+      <c r="S15">
+        <v>0.401279914103942</v>
+      </c>
+      <c r="T15">
+        <v>0.401279914103942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.87723795395895</v>
-      </c>
-      <c r="H13">
-        <v>1.87723795395895</v>
-      </c>
-      <c r="I13">
-        <v>0.2810280779309928</v>
-      </c>
-      <c r="J13">
-        <v>0.2810280779309928</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>24.090419340765</v>
-      </c>
-      <c r="N13">
-        <v>24.090419340765</v>
-      </c>
-      <c r="O13">
-        <v>0.2051226970879587</v>
-      </c>
-      <c r="P13">
-        <v>0.2051226970879587</v>
-      </c>
-      <c r="Q13">
-        <v>45.22344951327081</v>
-      </c>
-      <c r="R13">
-        <v>45.22344951327081</v>
-      </c>
-      <c r="S13">
-        <v>0.05764523730265029</v>
-      </c>
-      <c r="T13">
-        <v>0.05764523730265029</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.553315</v>
+      </c>
+      <c r="H16">
+        <v>19.659945</v>
+      </c>
+      <c r="I16">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="J16">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9360126666666666</v>
+      </c>
+      <c r="N16">
+        <v>2.808038</v>
+      </c>
+      <c r="O16">
+        <v>0.007701938614251506</v>
+      </c>
+      <c r="P16">
+        <v>0.007701938614251506</v>
+      </c>
+      <c r="Q16">
+        <v>6.133985848656667</v>
+      </c>
+      <c r="R16">
+        <v>55.20587263791</v>
+      </c>
+      <c r="S16">
+        <v>0.004317931762609788</v>
+      </c>
+      <c r="T16">
+        <v>0.004317931762609788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.553315</v>
+      </c>
+      <c r="H17">
+        <v>19.659945</v>
+      </c>
+      <c r="I17">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="J17">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>25.99049233333334</v>
+      </c>
+      <c r="N17">
+        <v>77.97147700000001</v>
+      </c>
+      <c r="O17">
+        <v>0.2138616106749707</v>
+      </c>
+      <c r="P17">
+        <v>0.2138616106749707</v>
+      </c>
+      <c r="Q17">
+        <v>170.3238832654184</v>
+      </c>
+      <c r="R17">
+        <v>1532.914949388765</v>
+      </c>
+      <c r="S17">
+        <v>0.1198970658929468</v>
+      </c>
+      <c r="T17">
+        <v>0.1198970658929468</v>
       </c>
     </row>
   </sheetData>
